--- a/biology/Histoire de la zoologie et de la botanique/Henry_Smeathman/Henry_Smeathman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Smeathman/Henry_Smeathman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Smeathman (Scarborough, 1742-Londres, 1er juillet 1786) est un officier de marine et naturaliste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mène à partir de 1771 de nombreuses expéditions scientifiques en Sierra Leone où il devient célèbre pour ses travaux sur les termites. 
 Il est aussi connu pour avoir tenté de faire de la Sierra Leone une partie pour esclaves affranchis. 
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Some account of the termites, which are found in hot Climates, 1781
 Elocution and polite literature, 1785
